--- a/dashboard-ui/src/components/SurveyResults/Survey Delegation Variables.xlsx
+++ b/dashboard-ui/src/components/SurveyResults/Survey Delegation Variables.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28318"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79D1ED4B-8FC1-4022-B818-AAEC61DC9975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{675A8911-BEA1-4323-9B15-3BC35ADE7F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
   <si>
     <t>Variables</t>
   </si>
@@ -147,6 +147,12 @@
     <t>The total time it took the participant to go through the last page of the survey</t>
   </si>
   <si>
+    <t>The participant's response to "How much experience did you have with VR Gaming before today?"</t>
+  </si>
+  <si>
+    <t>The total time it took the participant to read through the instructions</t>
+  </si>
+  <si>
     <t>X refers to the block number, Y refers to the DM number the participant saw. For Eval 4 and 5, participants saw 4 blocks with 2-3 DMs each. The following columns describe each page of the survey using this BX_DMY format.</t>
   </si>
   <si>
@@ -213,7 +219,10 @@
     <t>Levels</t>
   </si>
   <si>
-    <t>1.1, 1.2, 1.3, 2, 3, 4, 5</t>
+    <t>4, 5</t>
+  </si>
+  <si>
+    <t>0 - None at all \n 1 - I have used it, but not often \n 2 - I use it occasionally \n 3 - I use it often \n 4 - I use it all the time</t>
   </si>
   <si>
     <t>B1_DM1, B1_DM2, B1_DM3, B2_DM1, B2_DM2, etc.</t>
@@ -613,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -745,119 +754,129 @@
       <c r="G2" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AD2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="126" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2"/>
+      <c r="H3" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
+  <printOptions horizontalCentered="1" verticalCentered="1" headings="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dashboard-ui/src/components/SurveyResults/Survey Delegation Variables.xlsx
+++ b/dashboard-ui/src/components/SurveyResults/Survey Delegation Variables.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28318"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{675A8911-BEA1-4323-9B15-3BC35ADE7F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{790DE9E2-39BD-44A3-8D5C-DFD4B6B4F741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>Variables</t>
   </si>
@@ -72,25 +72,25 @@
     <t>BX_DMY_Type</t>
   </si>
   <si>
-    <t xml:space="preserve">	BX_DMY_Target</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	BX_DM1_Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BX_DMY_Time	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BX_DMY_Scenario	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BX_DMY_Agreement	</t>
+    <t>BX_DMY_Target</t>
+  </si>
+  <si>
+    <t>BX_DM1_Name</t>
+  </si>
+  <si>
+    <t>BX_DMY_Time</t>
+  </si>
+  <si>
+    <t>BX_DMY_Scenario</t>
+  </si>
+  <si>
+    <t>BX_DMY_Agreement</t>
   </si>
   <si>
     <t>BX_DMY_SRAlign</t>
   </si>
   <si>
-    <t xml:space="preserve">BX_DMY_Trustworthy	</t>
+    <t>BX_DMY_Trustworthy</t>
   </si>
   <si>
     <t>BX_DMY_Trust</t>
@@ -99,25 +99,25 @@
     <t>BX_Compare_DM1</t>
   </si>
   <si>
-    <t xml:space="preserve">BX_Compare_DM2	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BX_Compare_DM3	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BX_Compare_Time	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BX_Compare_FC1	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BX_Compare_FC1_Conf	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BX_Compare_FC1_Explain	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BX_Compare_FC2	</t>
+    <t>BX_Compare_DM2</t>
+  </si>
+  <si>
+    <t>BX_Compare_DM3</t>
+  </si>
+  <si>
+    <t>BX_Compare_Time</t>
+  </si>
+  <si>
+    <t>BX_Compare_FC1</t>
+  </si>
+  <si>
+    <t>BX_Compare_FC1_Conf</t>
+  </si>
+  <si>
+    <t>BX_Compare_FC1_Explain</t>
+  </si>
+  <si>
+    <t>BX_Compare_FC2</t>
   </si>
   <si>
     <t>BX_Compare_FC2_Conf</t>
@@ -222,7 +222,87 @@
     <t>4, 5</t>
   </si>
   <si>
-    <t>0 - None at all \n 1 - I have used it, but not often \n 2 - I use it occasionally \n 3 - I use it often \n 4 - I use it all the time</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">0 - None at all </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1 - I have used it, but not often </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2 - I use it occasionally </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3 - I use it often </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4 - I use it all the time</t>
+    </r>
   </si>
   <si>
     <t>B1_DM1, B1_DM2, B1_DM3, B2_DM1, B2_DM2, etc.</t>
@@ -237,28 +317,549 @@
     <t>aligned, baseline, misaligned</t>
   </si>
   <si>
-    <t>ADEPT 0.0-1.0 \n SoarTech: Unique file names such as "qol-synth-LowCluster"</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">ADEPT 0.0-1.0 (for PH1, only 0.2-0.8) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> SoarTech: Unique file names such as "qol-synth-LowCluster"</t>
+    </r>
   </si>
   <si>
     <t>Medic-LN, where L is a letter and N is a number</t>
   </si>
   <si>
-    <t>1 - Strongly Disagree \n 2 - Disagree \n 3 - Neither agree nor disagree \n 4 - Agree \n 5 - Strongly Agree</t>
-  </si>
-  <si>
-    <t>1 - Not confident at all \n 2 - Not confident \n 3 - Somewhat confident \n 4 - Confident \n 5 - Completely confident</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 - Strongly Disagree </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2 - Disagree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> \n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3 - Neither agree nor disagree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> \n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4 - Agree </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5 - Strongly Agree</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 - Strongly Disagree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> \n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2 - Disagree </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3 - Neither agree nor disagree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> \n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4 - Agree </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5 - Strongly Agree</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 - Strongly Disagree </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2 - Disagree </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3 - Neither agree nor disagree </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">\n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4 - Agree </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5 - Strongly Agree</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 - Strongly Disagree </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">\n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2 - Disagree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> \n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3 - Neither agree nor disagree </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4 - Agree </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5 - Strongly Agree</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 - Not confident at all </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2 - Not confident </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3 - Somewhat confident </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4 - Confident </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5 - Completely confident</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 - Not confident at all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> \n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 2 - Not confident </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3 - Somewhat confident </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4 - Confident</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> \n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 5 - Completely confident</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,7 +872,23 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -294,17 +911,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,261 +1247,285 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="26" width="16.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="17.140625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="16.28515625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="15.5703125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="15.42578125" style="1" customWidth="1"/>
+    <col min="1" max="17" width="16.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.5703125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="18.140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="19.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="16.7109375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="22.28515625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="25.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="18.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="23" style="1" customWidth="1"/>
+    <col min="31" max="31" width="25" style="1" customWidth="1"/>
     <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="45.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:31" s="2" customFormat="1" ht="72" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="213">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AB2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AC2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AD2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AE2" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="126" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="H3" s="1" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA3" s="1" t="s">
+      <c r="S3" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="T3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE3" s="2"/>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="1" verticalCentered="1" headings="1" gridLines="1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dashboard-ui/src/components/SurveyResults/Survey Delegation Variables.xlsx
+++ b/dashboard-ui/src/components/SurveyResults/Survey Delegation Variables.xlsx
@@ -1,32 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28318"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{790DE9E2-39BD-44A3-8D5C-DFD4B6B4F741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -51,13 +34,13 @@
     <t>Total Time</t>
   </si>
   <si>
-    <t>Post-Scenario Measures - Time Taken (mm:ss)</t>
+    <t>Post-Scenario Measures - Time Taken (Minutes)</t>
   </si>
   <si>
     <t>VR Experience Level</t>
   </si>
   <si>
-    <t>Note Page - Time Taken (mm:ss)</t>
+    <t>Note Page - Time Taken (Minutes)</t>
   </si>
   <si>
     <t>BX_DMY</t>
@@ -141,7 +124,7 @@
     <t>The time the participant ended the survey</t>
   </si>
   <si>
-    <t>The total time (mm:ss) it took the participant to complete the survey</t>
+    <t>The total time (Minutes) it took the participant to complete the survey</t>
   </si>
   <si>
     <t>The total time it took the participant to go through the last page of the survey</t>
@@ -198,7 +181,7 @@
     <t>The name and alignment value of the third medic being compared in this comparison page</t>
   </si>
   <si>
-    <t>The amount of time the participant spent (mm:ss) on the comparison page</t>
+    <t>The amount of time the participant spent (Minutes) on the comparison page</t>
   </si>
   <si>
     <t>The response to the first forced choice question (baseline vs aligned)</t>
@@ -223,10 +206,14 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">0 - None at all </t>
@@ -234,17 +221,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 1 - I have used it, but not often </t>
@@ -252,17 +241,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 2 - I use it occasionally </t>
@@ -270,17 +261,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 3 - I use it often </t>
@@ -288,17 +281,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 4 - I use it all the time</t>
@@ -318,26 +313,35 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">ADEPT 0.0-1.0 (for PH1, only 0.2-0.8) </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> SoarTech: Unique file names such as "qol-synth-LowCluster"</t>
     </r>
@@ -347,10 +351,14 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1 - Strongly Disagree </t>
@@ -358,17 +366,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 2 - Disagree</t>
@@ -376,8 +386,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> \n</t>
@@ -387,6 +398,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 3 - Neither agree nor disagree</t>
@@ -394,8 +406,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> \n </t>
@@ -405,6 +418,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">4 - Agree </t>
@@ -412,17 +426,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 5 - Strongly Agree</t>
@@ -430,10 +446,14 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1 - Strongly Disagree</t>
@@ -441,8 +461,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> \n</t>
@@ -452,6 +473,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 2 - Disagree </t>
@@ -459,17 +481,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 3 - Neither agree nor disagree</t>
@@ -477,8 +501,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> \n</t>
@@ -488,6 +513,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 4 - Agree </t>
@@ -495,17 +521,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 5 - Strongly Agree</t>
@@ -513,10 +541,14 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1 - Strongly Disagree </t>
@@ -524,17 +556,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 2 - Disagree </t>
@@ -542,17 +576,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 3 - Neither agree nor disagree </t>
@@ -560,8 +596,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">\n </t>
@@ -571,6 +608,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">4 - Agree </t>
@@ -578,17 +616,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 5 - Strongly Agree</t>
@@ -596,10 +636,14 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1 - Strongly Disagree </t>
@@ -607,8 +651,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">\n </t>
@@ -618,6 +663,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>2 - Disagree</t>
@@ -625,8 +671,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> \n</t>
@@ -636,6 +683,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 3 - Neither agree nor disagree </t>
@@ -643,17 +691,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 4 - Agree </t>
@@ -661,17 +711,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 5 - Strongly Agree</t>
@@ -679,10 +731,14 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1 - Not confident at all </t>
@@ -690,17 +746,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 2 - Not confident </t>
@@ -708,17 +766,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 3 - Somewhat confident </t>
@@ -726,17 +786,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 4 - Confident </t>
@@ -744,17 +806,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 5 - Completely confident</t>
@@ -762,10 +826,14 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1 - Not confident at all</t>
@@ -773,8 +841,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> \n</t>
@@ -784,6 +853,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 2 - Not confident </t>
@@ -791,17 +861,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 3 - Somewhat confident </t>
@@ -809,17 +881,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 4 - Confident</t>
@@ -827,8 +901,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> \n</t>
@@ -838,6 +913,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 5 - Completely confident</t>
@@ -847,8 +923,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -858,37 +935,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -899,7 +948,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -911,38 +967,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="5">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -953,10 +1000,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -983,116 +1030,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1104,174 +1117,212 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="16.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="18.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.5703125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="18.140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="19.42578125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="16.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="22.28515625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="25.7109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="18.28515625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="23" style="1" customWidth="1"/>
-    <col min="31" max="31" width="25" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="4" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="4" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="4" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="4" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="4" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="4" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="4" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="4" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="4" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="4" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="4" width="25.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="2" customFormat="1" ht="72" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="46.5" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1356,7 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -1366,7 +1417,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="213">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="208.5" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -1461,7 +1512,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="126" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="114" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
@@ -1470,10 +1521,10 @@
         <v>62</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>63</v>
       </c>
       <c r="I3" s="2"/>
@@ -1489,7 +1540,7 @@
       <c r="M3" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="2" t="s">
         <v>68</v>
       </c>
       <c r="O3" s="2" t="s">
@@ -1497,16 +1548,16 @@
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="2" t="s">
         <v>73</v>
       </c>
       <c r="V3" s="2"/>
@@ -1514,18 +1565,17 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="5" t="s">
+      <c r="AA3" s="2" t="s">
         <v>74</v>
       </c>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
-      <c r="AD3" s="5" t="s">
+      <c r="AD3" s="2" t="s">
         <v>75</v>
       </c>
       <c r="AE3" s="2"/>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dashboard-ui/src/components/SurveyResults/Survey Delegation Variables.xlsx
+++ b/dashboard-ui/src/components/SurveyResults/Survey Delegation Variables.xlsx
@@ -31,7 +31,7 @@
     <t>End Time</t>
   </si>
   <si>
-    <t>Total Time</t>
+    <t>Total Time (Minutes)</t>
   </si>
   <si>
     <t>Post-Scenario Measures - Time Taken (Minutes)</t>

--- a/dashboard-ui/src/components/SurveyResults/Survey Delegation Variables.xlsx
+++ b/dashboard-ui/src/components/SurveyResults/Survey Delegation Variables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
   <si>
     <t>Variables</t>
   </si>
@@ -34,15 +34,24 @@
     <t>Total Time (Minutes)</t>
   </si>
   <si>
+    <t>Total Time (mm:ss)</t>
+  </si>
+  <si>
     <t>Post-Scenario Measures - Time Taken (Minutes)</t>
   </si>
   <si>
+    <t>Post-Scenario Measures - Time Taken (mm:ss)</t>
+  </si>
+  <si>
     <t>VR Experience Level</t>
   </si>
   <si>
     <t>Note Page - Time Taken (Minutes)</t>
   </si>
   <si>
+    <t>Note Page - Time Taken (mm:ss)</t>
+  </si>
+  <si>
     <t>BX_DMY</t>
   </si>
   <si>
@@ -64,6 +73,9 @@
     <t>BX_DMY_Time</t>
   </si>
   <si>
+    <t>BX_DMY_Time (mm:ss)</t>
+  </si>
+  <si>
     <t>BX_DMY_Scenario</t>
   </si>
   <si>
@@ -127,6 +139,9 @@
     <t>The total time (Minutes) it took the participant to complete the survey</t>
   </si>
   <si>
+    <t>The total time (mm:ss) it took the participant to complete the survey</t>
+  </si>
+  <si>
     <t>The total time it took the participant to go through the last page of the survey</t>
   </si>
   <si>
@@ -152,6 +167,9 @@
   </si>
   <si>
     <t>The name assigned to the DM the participant viewed.</t>
+  </si>
+  <si>
+    <t>The time (minutes) the participant spent on this page</t>
   </si>
   <si>
     <t>The time the participant spent on this page</t>
@@ -967,7 +985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -975,11 +993,17 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1283,43 +1307,47 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="4" width="19.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="4" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="4" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="4" width="18.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="4" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="4" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="4" width="16.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="4" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="4" width="25.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="4" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="4" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="4" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="5" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="5" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="5" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="5" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="5" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="5" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="5" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="5" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="5" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="5" width="25.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="46.5" customFormat="1" s="1">
@@ -1341,13 +1369,13 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1356,7 +1384,7 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -1380,7 +1408,7 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
@@ -1415,165 +1443,193 @@
       </c>
       <c r="AE1" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="208.5" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="114" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3"/>
       <c r="M3" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="R3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
-      <c r="AD3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dashboard-ui/src/components/SurveyResults/Survey Delegation Variables.xlsx
+++ b/dashboard-ui/src/components/SurveyResults/Survey Delegation Variables.xlsx
@@ -1,37 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28318"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{790DE9E2-39BD-44A3-8D5C-DFD4B6B4F741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
   <si>
     <t>Variables</t>
   </si>
@@ -48,7 +31,13 @@
     <t>End Time</t>
   </si>
   <si>
-    <t>Total Time</t>
+    <t>Total Time (Minutes)</t>
+  </si>
+  <si>
+    <t>Total Time (mm:ss)</t>
+  </si>
+  <si>
+    <t>Post-Scenario Measures - Time Taken (Minutes)</t>
   </si>
   <si>
     <t>Post-Scenario Measures - Time Taken (mm:ss)</t>
@@ -57,6 +46,9 @@
     <t>VR Experience Level</t>
   </si>
   <si>
+    <t>Note Page - Time Taken (Minutes)</t>
+  </si>
+  <si>
     <t>Note Page - Time Taken (mm:ss)</t>
   </si>
   <si>
@@ -81,6 +73,9 @@
     <t>BX_DMY_Time</t>
   </si>
   <si>
+    <t>BX_DMY_Time (mm:ss)</t>
+  </si>
+  <si>
     <t>BX_DMY_Scenario</t>
   </si>
   <si>
@@ -141,6 +136,9 @@
     <t>The time the participant ended the survey</t>
   </si>
   <si>
+    <t>The total time (Minutes) it took the participant to complete the survey</t>
+  </si>
+  <si>
     <t>The total time (mm:ss) it took the participant to complete the survey</t>
   </si>
   <si>
@@ -171,6 +169,9 @@
     <t>The name assigned to the DM the participant viewed.</t>
   </si>
   <si>
+    <t>The time (minutes) the participant spent on this page</t>
+  </si>
+  <si>
     <t>The time the participant spent on this page</t>
   </si>
   <si>
@@ -198,7 +199,7 @@
     <t>The name and alignment value of the third medic being compared in this comparison page</t>
   </si>
   <si>
-    <t>The amount of time the participant spent (mm:ss) on the comparison page</t>
+    <t>The amount of time the participant spent (Minutes) on the comparison page</t>
   </si>
   <si>
     <t>The response to the first forced choice question (baseline vs aligned)</t>
@@ -223,10 +224,14 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">0 - None at all </t>
@@ -234,17 +239,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 1 - I have used it, but not often </t>
@@ -252,17 +259,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 2 - I use it occasionally </t>
@@ -270,17 +279,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 3 - I use it often </t>
@@ -288,17 +299,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 4 - I use it all the time</t>
@@ -318,26 +331,35 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">ADEPT 0.0-1.0 (for PH1, only 0.2-0.8) </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> SoarTech: Unique file names such as "qol-synth-LowCluster"</t>
     </r>
@@ -347,10 +369,14 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1 - Strongly Disagree </t>
@@ -358,17 +384,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 2 - Disagree</t>
@@ -376,8 +404,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> \n</t>
@@ -387,6 +416,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 3 - Neither agree nor disagree</t>
@@ -394,8 +424,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> \n </t>
@@ -405,6 +436,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">4 - Agree </t>
@@ -412,17 +444,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 5 - Strongly Agree</t>
@@ -430,10 +464,14 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1 - Strongly Disagree</t>
@@ -441,8 +479,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> \n</t>
@@ -452,6 +491,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 2 - Disagree </t>
@@ -459,17 +499,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 3 - Neither agree nor disagree</t>
@@ -477,8 +519,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> \n</t>
@@ -488,6 +531,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 4 - Agree </t>
@@ -495,17 +539,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 5 - Strongly Agree</t>
@@ -513,10 +559,14 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1 - Strongly Disagree </t>
@@ -524,17 +574,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 2 - Disagree </t>
@@ -542,17 +594,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 3 - Neither agree nor disagree </t>
@@ -560,8 +614,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">\n </t>
@@ -571,6 +626,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">4 - Agree </t>
@@ -578,17 +634,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 5 - Strongly Agree</t>
@@ -596,10 +654,14 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1 - Strongly Disagree </t>
@@ -607,8 +669,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">\n </t>
@@ -618,6 +681,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>2 - Disagree</t>
@@ -625,8 +689,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> \n</t>
@@ -636,6 +701,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 3 - Neither agree nor disagree </t>
@@ -643,17 +709,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 4 - Agree </t>
@@ -661,17 +729,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 5 - Strongly Agree</t>
@@ -679,10 +749,14 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1 - Not confident at all </t>
@@ -690,17 +764,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 2 - Not confident </t>
@@ -708,17 +784,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 3 - Somewhat confident </t>
@@ -726,17 +804,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 4 - Confident </t>
@@ -744,17 +824,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 5 - Completely confident</t>
@@ -762,10 +844,14 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+      <t/>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1 - Not confident at all</t>
@@ -773,8 +859,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> \n</t>
@@ -784,6 +871,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 2 - Not confident </t>
@@ -791,17 +879,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 3 - Somewhat confident </t>
@@ -809,17 +899,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>\n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 4 - Confident</t>
@@ -827,8 +919,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Calibri"/>
+        <color rgb="FFffffff"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> \n</t>
@@ -838,6 +931,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 5 - Completely confident</t>
@@ -847,8 +941,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -858,37 +953,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -899,7 +966,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -912,37 +986,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -953,10 +1024,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -983,116 +1054,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1104,174 +1141,216 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="16.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="18.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.5703125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="18.140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="19.42578125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="16.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="22.28515625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="25.7109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="18.28515625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="23" style="1" customWidth="1"/>
-    <col min="31" max="31" width="25" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="5" width="19.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="5" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="5" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="5" width="18.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="5" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="5" width="19.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="5" width="16.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="5" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="5" width="25.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="5" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="5" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="5" width="25.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="2" customFormat="1" ht="72" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="46.5" customFormat="1" s="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1290,13 +1369,13 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -1329,7 +1408,7 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
@@ -1365,167 +1444,194 @@
       <c r="AE1" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="AF1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" ht="213">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="208.5" customFormat="1" s="1">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="126" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="114" customFormat="1" s="1">
       <c r="A3" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="4"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>66</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3"/>
       <c r="M3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="T3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="P3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
+      <c r="Q3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="5" t="s">
-        <v>74</v>
-      </c>
+      <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
-      <c r="AD3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI3" s="2"/>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>